--- a/REGULAR/BUDGET/MONTENEGRO, MARIA MARIZA.xlsx
+++ b/REGULAR/BUDGET/MONTENEGRO, MARIA MARIZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D336B0D-AA04-441E-BEF5-6F851DBBD022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="626" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="626" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="474">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1445,12 +1444,24 @@
   </si>
   <si>
     <t>MONTENEGRO, MARIA MARIZA PENALES</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>UT(0-0-46)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1872,6 +1883,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1907,9 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,7 +2201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +2595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2708,7 +2719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2826,7 +2837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +3023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3078,7 +3089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3202,7 +3213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,7 +3344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +3387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3442,7 +3453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3588,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3594,25 +3605,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K716" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3919,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3929,7 +3940,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3937,99 +3948,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K712"/>
+  <dimension ref="A2:K716"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A637" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A625" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B644" sqref="B644"/>
+      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="63"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4037,7 +4048,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4050,7 +4061,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -4067,7 +4078,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4102,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4111,7 +4122,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.411000000000115</v>
+        <v>63.028000000000077</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4121,12 +4132,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22.377000000000066</v>
+        <v>23.627000000000066</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>90</v>
       </c>
@@ -4148,7 +4159,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>91</v>
       </c>
@@ -4165,7 +4176,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>35566</v>
       </c>
@@ -4184,7 +4195,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35582</v>
       </c>
@@ -4204,7 +4215,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>35612</v>
@@ -4225,7 +4236,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" ref="A15:A19" si="0">EDATE(A14,1)</f>
         <v>35643</v>
@@ -4252,7 +4263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4273,7 +4284,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4298,7 +4309,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A17,1)</f>
         <v>35735</v>
@@ -4319,7 +4330,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4340,7 +4351,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>97</v>
       </c>
@@ -4358,7 +4369,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35796</v>
       </c>
@@ -4378,7 +4389,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A21,1)</f>
         <v>35827</v>
@@ -4399,7 +4410,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" ref="A23:A29" si="1">EDATE(A22,1)</f>
         <v>35855</v>
@@ -4426,7 +4437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4447,7 +4458,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4474,7 +4485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4499,7 +4510,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4526,7 +4537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4547,7 +4558,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4574,7 +4585,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>105</v>
@@ -4591,7 +4602,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f>EDATE(A29,1)</f>
         <v>36069</v>
@@ -4616,7 +4627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>104</v>
@@ -4635,7 +4646,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36100</v>
@@ -4662,7 +4673,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>108</v>
@@ -4679,7 +4690,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>36130</v>
@@ -4706,7 +4717,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>100</v>
@@ -4728,7 +4739,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>109</v>
@@ -4748,7 +4759,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>111</v>
       </c>
@@ -4766,7 +4777,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36161</v>
       </c>
@@ -4790,7 +4801,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>104</v>
@@ -4809,7 +4820,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>113</v>
@@ -4826,7 +4837,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36192</v>
@@ -4853,7 +4864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>104</v>
@@ -4872,7 +4883,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>115</v>
@@ -4889,7 +4900,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>36220</v>
@@ -4914,7 +4925,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>100</v>
@@ -4933,7 +4944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>117</v>
@@ -4950,7 +4961,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>36251</v>
@@ -4975,7 +4986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>104</v>
@@ -4997,7 +5008,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>121</v>
@@ -5014,7 +5025,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f>EDATE(A48,1)</f>
         <v>36281</v>
@@ -5041,7 +5052,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>98</v>
@@ -5060,7 +5071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>122</v>
@@ -5077,7 +5088,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A51,1)</f>
         <v>36312</v>
@@ -5104,7 +5115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>125</v>
@@ -5121,7 +5132,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36342</v>
@@ -5148,7 +5159,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A59" si="2">EDATE(A56,1)</f>
         <v>36373</v>
@@ -5173,7 +5184,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -5200,7 +5211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -5227,7 +5238,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>127</v>
@@ -5244,7 +5255,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f>EDATE(A59,1)</f>
         <v>36465</v>
@@ -5271,7 +5282,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>114</v>
@@ -5290,7 +5301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36495</v>
@@ -5317,7 +5328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>134</v>
@@ -5337,7 +5348,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>135</v>
       </c>
@@ -5355,7 +5366,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36526</v>
       </c>
@@ -5379,7 +5390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>114</v>
@@ -5398,7 +5409,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>104</v>
@@ -5417,7 +5428,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>137</v>
@@ -5434,7 +5445,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A66,1)</f>
         <v>36557</v>
@@ -5461,7 +5472,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>134</v>
@@ -5478,7 +5489,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5503,7 +5514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>100</v>
@@ -5522,7 +5533,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -5541,7 +5552,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5568,7 +5579,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>140</v>
@@ -5585,7 +5596,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36647</v>
@@ -5612,7 +5623,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>114</v>
@@ -5631,7 +5642,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>114</v>
@@ -5650,7 +5661,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>103</v>
@@ -5667,7 +5678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>141</v>
@@ -5684,7 +5695,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5711,7 +5722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>104</v>
@@ -5730,7 +5741,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -5755,7 +5766,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" ref="A85:A89" si="3">EDATE(A84,1)</f>
         <v>36739</v>
@@ -5782,7 +5793,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -5807,7 +5818,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -5828,7 +5839,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -5849,7 +5860,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -5876,7 +5887,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>149</v>
       </c>
@@ -5894,7 +5905,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36892</v>
       </c>
@@ -5918,7 +5929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>114</v>
@@ -5937,7 +5948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36923</v>
@@ -5964,7 +5975,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>103</v>
@@ -5981,7 +5992,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>36951</v>
@@ -6008,7 +6019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>100</v>
@@ -6027,7 +6038,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36982</v>
@@ -6048,7 +6059,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" ref="A98:A105" si="4">EDATE(A97,1)</f>
         <v>37012</v>
@@ -6075,7 +6086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>103</v>
@@ -6092,7 +6103,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>37043</v>
@@ -6119,7 +6130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6146,7 +6157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>104</v>
@@ -6165,7 +6176,7 @@
         <v>46935</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>104</v>
@@ -6184,7 +6195,7 @@
         <v>46569</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A101,1)</f>
         <v>37104</v>
@@ -6205,7 +6216,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -6232,7 +6243,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>104</v>
@@ -6251,7 +6262,7 @@
         <v>46997</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>37165</v>
@@ -6278,7 +6289,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>114</v>
@@ -6297,7 +6308,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>127</v>
@@ -6314,7 +6325,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A107,1)</f>
         <v>37196</v>
@@ -6341,7 +6352,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>100</v>
@@ -6360,7 +6371,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A110,1)</f>
         <v>37226</v>
@@ -6381,7 +6392,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>156</v>
       </c>
@@ -6399,7 +6410,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37257</v>
@@ -6424,7 +6435,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" ref="A115:A226" si="5">EDATE(A114,1)</f>
         <v>37288</v>
@@ -6449,7 +6460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="5"/>
         <v>37316</v>
@@ -6476,7 +6487,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>114</v>
@@ -6498,7 +6509,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>37347</v>
@@ -6523,7 +6534,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -6548,7 +6559,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -6569,7 +6580,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -6596,7 +6607,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -6623,7 +6634,7 @@
         <v>11171</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>181</v>
@@ -6640,7 +6651,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37500</v>
@@ -6667,7 +6678,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>183</v>
@@ -6684,7 +6695,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37530</v>
@@ -6709,7 +6720,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -6736,7 +6747,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>185</v>
@@ -6753,7 +6764,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37591</v>
@@ -6778,7 +6789,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>157</v>
       </c>
@@ -6796,7 +6807,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37622</v>
@@ -6821,7 +6832,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="5"/>
         <v>37653</v>
@@ -6848,7 +6859,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>104</v>
@@ -6867,7 +6878,7 @@
         <v>46784</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>103</v>
@@ -6884,7 +6895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A132,1)</f>
         <v>37681</v>
@@ -6911,7 +6922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>104</v>
@@ -6930,7 +6941,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>104</v>
@@ -6949,7 +6960,7 @@
         <v>46082</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>103</v>
@@ -6966,7 +6977,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f>EDATE(A135,1)</f>
         <v>37712</v>
@@ -6987,7 +6998,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -7008,7 +7019,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -7035,7 +7046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>103</v>
@@ -7052,7 +7063,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>37803</v>
@@ -7079,7 +7090,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -7100,7 +7111,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -7125,7 +7136,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -7150,7 +7161,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -7175,7 +7186,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -7200,7 +7211,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>196</v>
@@ -7217,7 +7228,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="48" t="s">
         <v>158</v>
       </c>
@@ -7235,7 +7246,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>37987</v>
@@ -7262,7 +7273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>197</v>
@@ -7279,7 +7290,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>38018</v>
@@ -7306,7 +7317,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>103</v>
@@ -7323,7 +7334,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>199</v>
@@ -7340,7 +7351,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A153,1)</f>
         <v>38047</v>
@@ -7365,7 +7376,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="5"/>
         <v>38078</v>
@@ -7390,7 +7401,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -7417,7 +7428,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>103</v>
@@ -7434,7 +7445,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>186</v>
@@ -7451,7 +7462,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A158,1)</f>
         <v>38139</v>
@@ -7476,7 +7487,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -7503,7 +7514,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>132</v>
@@ -7522,7 +7533,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>206</v>
@@ -7539,7 +7550,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38200</v>
@@ -7566,7 +7577,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>114</v>
@@ -7585,7 +7596,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>207</v>
@@ -7602,7 +7613,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38231</v>
@@ -7629,7 +7640,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>209</v>
@@ -7646,7 +7657,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>38261</v>
@@ -7671,7 +7682,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>210</v>
@@ -7688,7 +7699,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A170,1)</f>
         <v>38292</v>
@@ -7715,7 +7726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>104</v>
@@ -7734,7 +7745,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>211</v>
@@ -7751,7 +7762,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A172,1)</f>
         <v>38322</v>
@@ -7776,7 +7787,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>159</v>
       </c>
@@ -7794,7 +7805,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38353</v>
@@ -7821,7 +7832,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -7840,7 +7851,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>214</v>
@@ -7857,7 +7868,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A177,1)</f>
         <v>38384</v>
@@ -7884,7 +7895,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>114</v>
@@ -7903,7 +7914,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>103</v>
@@ -7921,7 +7932,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>218</v>
@@ -7940,7 +7951,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A180,1)</f>
         <v>38412</v>
@@ -7965,7 +7976,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>222</v>
@@ -7982,7 +7993,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38443</v>
@@ -8009,7 +8020,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>132</v>
@@ -8028,7 +8039,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>224</v>
@@ -8045,7 +8056,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>38473</v>
@@ -8070,7 +8081,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="5"/>
         <v>38504</v>
@@ -8097,7 +8108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>98</v>
@@ -8116,7 +8127,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>228</v>
@@ -8133,7 +8144,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>38534</v>
@@ -8160,7 +8171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>114</v>
@@ -8179,7 +8190,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>104</v>
@@ -8198,7 +8209,7 @@
         <v>47300</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>233</v>
@@ -8215,7 +8226,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A193,1)</f>
         <v>38565</v>
@@ -8240,7 +8251,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="5"/>
         <v>38596</v>
@@ -8267,7 +8278,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>114</v>
@@ -8286,7 +8297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>236</v>
@@ -8303,7 +8314,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38626</v>
@@ -8330,7 +8341,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>237</v>
@@ -8347,7 +8358,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38657</v>
@@ -8374,7 +8385,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>241</v>
@@ -8391,7 +8402,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A203,1)</f>
         <v>38687</v>
@@ -8418,7 +8429,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>243</v>
@@ -8435,7 +8446,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="48" t="s">
         <v>160</v>
       </c>
@@ -8453,7 +8464,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A205,1)</f>
         <v>38718</v>
@@ -8480,7 +8491,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>103</v>
@@ -8497,7 +8508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>244</v>
@@ -8514,7 +8525,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A208,1)</f>
         <v>38749</v>
@@ -8541,7 +8552,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>104</v>
@@ -8560,7 +8571,7 @@
         <v>45323</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>245</v>
@@ -8577,7 +8588,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38777</v>
@@ -8602,7 +8613,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="5"/>
         <v>38808</v>
@@ -8629,7 +8640,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>98</v>
@@ -8651,7 +8662,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>247</v>
@@ -8668,7 +8679,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38838</v>
@@ -8693,7 +8704,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="5"/>
         <v>38869</v>
@@ -8720,7 +8731,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>251</v>
@@ -8737,7 +8748,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A219,1)</f>
         <v>38899</v>
@@ -8762,7 +8773,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="5"/>
         <v>38930</v>
@@ -8787,7 +8798,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="5"/>
         <v>38961</v>
@@ -8814,7 +8825,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>255</v>
@@ -8831,7 +8842,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A223,1)</f>
         <v>38991</v>
@@ -8856,7 +8867,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="5"/>
         <v>39022</v>
@@ -8883,7 +8894,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>257</v>
@@ -8900,7 +8911,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>39052</v>
@@ -8927,7 +8938,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>195</v>
@@ -8944,7 +8955,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>259</v>
@@ -8961,7 +8972,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>161</v>
       </c>
@@ -8979,7 +8990,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f>EDATE(A228,1)</f>
         <v>39083</v>
@@ -9006,7 +9017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>260</v>
@@ -9023,7 +9034,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39114</v>
@@ -9048,7 +9059,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>262</v>
@@ -9065,7 +9076,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39142</v>
@@ -9092,7 +9103,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>103</v>
@@ -9109,7 +9120,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>100</v>
@@ -9128,7 +9139,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>263</v>
@@ -9145,7 +9156,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39173</v>
@@ -9170,7 +9181,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" ref="A241:A373" si="6">EDATE(A240,1)</f>
         <v>39203</v>
@@ -9195,7 +9206,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="6"/>
         <v>39234</v>
@@ -9220,7 +9231,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>270</v>
@@ -9237,7 +9248,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39264</v>
@@ -9262,7 +9273,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="6"/>
         <v>39295</v>
@@ -9287,7 +9298,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>227</v>
@@ -9306,7 +9317,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>114</v>
@@ -9325,7 +9336,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>227</v>
@@ -9344,7 +9355,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A245,1)</f>
         <v>39326</v>
@@ -9371,7 +9382,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>276</v>
@@ -9392,7 +9403,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>277</v>
@@ -9409,7 +9420,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39356</v>
@@ -9436,7 +9447,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>281</v>
@@ -9455,7 +9466,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>280</v>
@@ -9474,7 +9485,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>184</v>
@@ -9491,7 +9502,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39387</v>
@@ -9518,7 +9529,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>103</v>
@@ -9535,7 +9546,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>239</v>
@@ -9554,7 +9565,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>285</v>
@@ -9571,7 +9582,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39417</v>
@@ -9596,7 +9607,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>162</v>
       </c>
@@ -9614,7 +9625,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39448</v>
@@ -9639,7 +9650,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>289</v>
@@ -9656,7 +9667,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A262,1)</f>
         <v>39479</v>
@@ -9683,7 +9694,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>114</v>
@@ -9702,7 +9713,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>291</v>
@@ -9719,7 +9730,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>293</v>
@@ -9736,7 +9747,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="55"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A264,1)</f>
         <v>39508</v>
@@ -9763,7 +9774,7 @@
         <v>45717</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>294</v>
@@ -9780,7 +9791,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -9807,7 +9818,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>295</v>
@@ -9824,7 +9835,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -9851,7 +9862,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>114</v>
@@ -9870,7 +9881,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>297</v>
@@ -9887,7 +9898,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A272,1)</f>
         <v>39600</v>
@@ -9914,7 +9925,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>114</v>
@@ -9933,7 +9944,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>298</v>
@@ -9950,7 +9961,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A275,1)</f>
         <v>39630</v>
@@ -9977,7 +9988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>277</v>
@@ -9994,7 +10005,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39661</v>
@@ -10021,7 +10032,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>281</v>
@@ -10040,7 +10051,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>301</v>
@@ -10057,7 +10068,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f>EDATE(A280,1)</f>
         <v>39692</v>
@@ -10084,7 +10095,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>304</v>
@@ -10104,7 +10115,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>39722</v>
@@ -10133,7 +10144,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>305</v>
@@ -10150,7 +10161,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>39753</v>
@@ -10177,7 +10188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>308</v>
@@ -10194,7 +10205,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>39783</v>
@@ -10221,7 +10232,7 @@
         <v>43435</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>310</v>
@@ -10238,7 +10249,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="48" t="s">
         <v>163</v>
       </c>
@@ -10256,7 +10267,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f>EDATE(A289,1)</f>
         <v>39814</v>
@@ -10281,7 +10292,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>312</v>
@@ -10298,7 +10309,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A292,1)</f>
         <v>39845</v>
@@ -10323,7 +10334,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="6"/>
         <v>39873</v>
@@ -10348,7 +10359,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>103</v>
@@ -10365,7 +10376,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>316</v>
@@ -10382,7 +10393,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A295,1)</f>
         <v>39904</v>
@@ -10407,7 +10418,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -10432,7 +10443,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -10457,7 +10468,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -10482,7 +10493,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>320</v>
@@ -10499,7 +10510,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A301,1)</f>
         <v>40026</v>
@@ -10524,7 +10535,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -10551,7 +10562,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>320</v>
@@ -10568,7 +10579,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>40087</v>
@@ -10593,7 +10604,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -10618,7 +10629,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="6"/>
         <v>40148</v>
@@ -10643,7 +10654,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="48" t="s">
         <v>164</v>
       </c>
@@ -10661,7 +10672,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>40179</v>
@@ -10688,7 +10699,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>233</v>
@@ -10705,7 +10716,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="55"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>40210</v>
@@ -10730,7 +10741,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="6"/>
         <v>40238</v>
@@ -10755,7 +10766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>327</v>
@@ -10772,7 +10783,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>40269</v>
@@ -10797,7 +10808,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="6"/>
         <v>40299</v>
@@ -10822,7 +10833,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -10849,7 +10860,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>103</v>
@@ -10866,7 +10877,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f>EDATE(A317,1)</f>
         <v>40360</v>
@@ -10891,7 +10902,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -10916,7 +10927,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -10941,7 +10952,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -10966,7 +10977,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -10993,7 +11004,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>335</v>
@@ -11010,7 +11021,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40513</v>
@@ -11037,7 +11048,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>338</v>
@@ -11054,7 +11065,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="48" t="s">
         <v>165</v>
       </c>
@@ -11072,7 +11083,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f>EDATE(A325,1)</f>
         <v>40544</v>
@@ -11097,7 +11108,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>114</v>
@@ -11116,7 +11127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>340</v>
@@ -11133,7 +11144,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>40575</v>
@@ -11160,7 +11171,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>104</v>
@@ -11179,7 +11190,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>104</v>
@@ -11198,7 +11209,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>104</v>
@@ -11217,7 +11228,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>342</v>
@@ -11234,7 +11245,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f>EDATE(A331,1)</f>
         <v>40603</v>
@@ -11261,7 +11272,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>98</v>
@@ -11280,7 +11291,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>103</v>
@@ -11297,7 +11308,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>343</v>
@@ -11314,7 +11325,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A336,1)</f>
         <v>40634</v>
@@ -11341,7 +11352,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>346</v>
@@ -11358,7 +11369,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40664</v>
@@ -11385,7 +11396,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>103</v>
@@ -11402,7 +11413,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>104</v>
@@ -11421,7 +11432,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>134</v>
@@ -11438,7 +11449,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A342,1)</f>
         <v>40695</v>
@@ -11465,7 +11476,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>114</v>
@@ -11484,7 +11495,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>348</v>
@@ -11501,7 +11512,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40725</v>
@@ -11530,7 +11541,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>353</v>
@@ -11547,7 +11558,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A349,1)</f>
         <v>40756</v>
@@ -11568,7 +11579,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>354</v>
@@ -11585,7 +11596,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A351,1)</f>
         <v>40787</v>
@@ -11612,7 +11623,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>114</v>
@@ -11634,7 +11645,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>357</v>
@@ -11651,7 +11662,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -11678,7 +11689,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>195</v>
@@ -11695,7 +11706,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>98</v>
@@ -11716,7 +11727,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>358</v>
@@ -11733,7 +11744,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A356,1)</f>
         <v>40848</v>
@@ -11762,7 +11773,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>361</v>
@@ -11779,7 +11790,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -11806,7 +11817,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>98</v>
@@ -11825,7 +11836,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>363</v>
@@ -11842,7 +11853,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="48" t="s">
         <v>166</v>
       </c>
@@ -11860,7 +11871,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A362,1)</f>
         <v>40909</v>
@@ -11885,7 +11896,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>114</v>
@@ -11906,7 +11917,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>98</v>
@@ -11927,7 +11938,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>368</v>
@@ -11944,7 +11955,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>40940</v>
@@ -11973,7 +11984,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>113</v>
@@ -11990,7 +12001,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f>EDATE(A370,1)</f>
         <v>40969</v>
@@ -12015,7 +12026,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="6"/>
         <v>41000</v>
@@ -12040,7 +12051,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>104</v>
@@ -12059,7 +12070,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>371</v>
@@ -12076,7 +12087,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>41030</v>
@@ -12103,7 +12114,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>104</v>
@@ -12122,7 +12133,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>98</v>
@@ -12141,7 +12152,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>372</v>
@@ -12158,7 +12169,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A376,1)</f>
         <v>41061</v>
@@ -12185,7 +12196,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>105</v>
@@ -12202,7 +12213,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f>EDATE(A380,1)</f>
         <v>41091</v>
@@ -12231,7 +12242,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>227</v>
@@ -12252,7 +12263,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>104</v>
@@ -12271,7 +12282,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>375</v>
@@ -12288,7 +12299,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A382,1)</f>
         <v>41122</v>
@@ -12313,7 +12324,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" ref="A387:A508" si="7">EDATE(A386,1)</f>
         <v>41153</v>
@@ -12338,7 +12349,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="7"/>
         <v>41183</v>
@@ -12365,7 +12376,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>103</v>
@@ -12382,7 +12393,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>381</v>
@@ -12399,7 +12410,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>41214</v>
@@ -12426,7 +12437,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>280</v>
@@ -12445,7 +12456,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>351</v>
@@ -12464,7 +12475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>382</v>
@@ -12481,7 +12492,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A391,1)</f>
         <v>41244</v>
@@ -12506,7 +12517,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="48" t="s">
         <v>167</v>
       </c>
@@ -12524,7 +12535,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41275</v>
@@ -12549,7 +12560,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>276</v>
@@ -12570,7 +12581,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>193</v>
@@ -12587,7 +12598,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41306</v>
@@ -12616,7 +12627,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>386</v>
@@ -12633,7 +12644,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41334</v>
@@ -12660,7 +12671,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>103</v>
@@ -12677,7 +12688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>388</v>
@@ -12694,7 +12705,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A402,1)</f>
         <v>41365</v>
@@ -12723,7 +12734,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>280</v>
@@ -12740,7 +12751,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>389</v>
@@ -12757,7 +12768,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A405,1)</f>
         <v>41395</v>
@@ -12784,7 +12795,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>134</v>
@@ -12801,7 +12812,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>41426</v>
@@ -12832,7 +12843,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>392</v>
@@ -12849,7 +12860,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41456</v>
@@ -12878,7 +12889,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>393</v>
@@ -12895,7 +12906,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41487</v>
@@ -12926,7 +12937,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>395</v>
@@ -12943,7 +12954,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41518</v>
@@ -12972,7 +12983,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>397</v>
@@ -12989,7 +13000,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A416,1)</f>
         <v>41548</v>
@@ -13014,7 +13025,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="7"/>
         <v>41579</v>
@@ -13039,7 +13050,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>400</v>
@@ -13056,7 +13067,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>41609</v>
@@ -13081,7 +13092,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>168</v>
       </c>
@@ -13099,7 +13110,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f>EDATE(A421,1)</f>
         <v>41640</v>
@@ -13126,7 +13137,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>403</v>
@@ -13143,7 +13154,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41671</v>
@@ -13170,7 +13181,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>104</v>
@@ -13189,7 +13200,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>405</v>
@@ -13206,7 +13217,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <f>EDATE(A425,1)</f>
         <v>41699</v>
@@ -13231,7 +13242,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f t="shared" si="7"/>
         <v>41730</v>
@@ -13258,7 +13269,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>104</v>
@@ -13277,7 +13288,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>407</v>
@@ -13294,7 +13305,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A429,1)</f>
         <v>41760</v>
@@ -13319,7 +13330,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="7"/>
         <v>41791</v>
@@ -13344,7 +13355,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>104</v>
@@ -13361,7 +13372,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>409</v>
@@ -13378,7 +13389,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f>EDATE(A433,1)</f>
         <v>41821</v>
@@ -13405,7 +13416,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>114</v>
@@ -13424,7 +13435,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>103</v>
@@ -13441,7 +13452,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>332</v>
@@ -13458,7 +13469,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A436,1)</f>
         <v>41852</v>
@@ -13485,7 +13496,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>414</v>
@@ -13502,7 +13513,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f>EDATE(A440,1)</f>
         <v>41883</v>
@@ -13529,7 +13540,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>416</v>
@@ -13546,7 +13557,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>41913</v>
@@ -13575,7 +13586,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>307</v>
@@ -13594,7 +13605,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>417</v>
@@ -13611,7 +13622,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>41944</v>
@@ -13638,7 +13649,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>420</v>
@@ -13655,7 +13666,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>41974</v>
@@ -13686,7 +13697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>351</v>
@@ -13705,7 +13716,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>421</v>
@@ -13722,7 +13733,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>169</v>
       </c>
@@ -13740,7 +13751,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A449,1)</f>
         <v>42005</v>
@@ -13765,7 +13776,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="7"/>
         <v>42036</v>
@@ -13792,7 +13803,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>424</v>
@@ -13812,7 +13823,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>42064</v>
@@ -13839,7 +13850,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>425</v>
@@ -13856,7 +13867,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A456,1)</f>
         <v>42095</v>
@@ -13883,7 +13894,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>103</v>
@@ -13900,7 +13911,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>114</v>
@@ -13919,7 +13930,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>351</v>
@@ -13938,7 +13949,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>427</v>
@@ -13955,7 +13966,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A458,1)</f>
         <v>42125</v>
@@ -13980,7 +13991,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f t="shared" si="7"/>
         <v>42156</v>
@@ -14005,7 +14016,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="7"/>
         <v>42186</v>
@@ -14032,7 +14043,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>104</v>
@@ -14051,7 +14062,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>433</v>
@@ -14068,7 +14079,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A465,1)</f>
         <v>42217</v>
@@ -14093,7 +14104,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="7"/>
         <v>42248</v>
@@ -14118,7 +14129,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>98</v>
@@ -14141,7 +14152,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>435</v>
@@ -14158,7 +14169,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A469,1)</f>
         <v>42278</v>
@@ -14183,7 +14194,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>438</v>
@@ -14200,7 +14211,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42309</v>
@@ -14225,7 +14236,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="7"/>
         <v>42339</v>
@@ -14250,7 +14261,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="48" t="s">
         <v>170</v>
       </c>
@@ -14268,7 +14279,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A475,1)</f>
         <v>42370</v>
@@ -14293,7 +14304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>114</v>
@@ -14312,7 +14323,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>442</v>
@@ -14329,7 +14340,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A477,1)</f>
         <v>42401</v>
@@ -14354,7 +14365,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="7"/>
         <v>42430</v>
@@ -14381,7 +14392,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>104</v>
@@ -14400,7 +14411,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>103</v>
@@ -14417,7 +14428,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>446</v>
@@ -14434,7 +14445,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f>EDATE(A481,1)</f>
         <v>42461</v>
@@ -14459,7 +14470,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="7"/>
         <v>42491</v>
@@ -14486,7 +14497,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>140</v>
@@ -14503,7 +14514,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A486,1)</f>
         <v>42522</v>
@@ -14528,7 +14539,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="7"/>
         <v>42552</v>
@@ -14553,7 +14564,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="7"/>
         <v>42583</v>
@@ -14578,7 +14589,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="7"/>
         <v>42614</v>
@@ -14603,7 +14614,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="7"/>
         <v>42644</v>
@@ -14628,7 +14639,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="7"/>
         <v>42675</v>
@@ -14653,7 +14664,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="7"/>
         <v>42705</v>
@@ -14680,7 +14691,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>103</v>
@@ -14697,7 +14708,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>104</v>
@@ -14716,7 +14727,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>456</v>
@@ -14733,7 +14744,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>171</v>
       </c>
@@ -14751,7 +14762,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>42736</v>
@@ -14776,7 +14787,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>104</v>
@@ -14795,7 +14806,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f>EDATE(A499,1)</f>
         <v>42767</v>
@@ -14820,7 +14831,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="7"/>
         <v>42795</v>
@@ -14841,7 +14852,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f t="shared" si="7"/>
         <v>42826</v>
@@ -14866,7 +14877,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="7"/>
         <v>42856</v>
@@ -14893,7 +14904,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>100</v>
@@ -14912,7 +14923,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>114</v>
@@ -14931,7 +14942,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A504,1)</f>
         <v>42887</v>
@@ -14952,7 +14963,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" si="7"/>
         <v>42917</v>
@@ -14979,7 +14990,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A508,1)</f>
         <v>42948</v>
@@ -15006,7 +15017,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>107</v>
@@ -15025,7 +15036,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>104</v>
@@ -15044,7 +15055,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>104</v>
@@ -15063,7 +15074,7 @@
         <v>11536</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f>EDATE(A509,1)</f>
         <v>42979</v>
@@ -15090,7 +15101,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>104</v>
@@ -15112,7 +15123,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f>EDATE(A513,1)</f>
         <v>43009</v>
@@ -15139,7 +15150,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>100</v>
@@ -15158,7 +15169,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>104</v>
@@ -15177,7 +15188,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A515,1)</f>
         <v>43040</v>
@@ -15204,7 +15215,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>104</v>
@@ -15223,7 +15234,7 @@
         <v>38322</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>43070</v>
@@ -15250,7 +15261,7 @@
         <v>46722</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="48" t="s">
         <v>48</v>
       </c>
@@ -15265,7 +15276,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43101</v>
       </c>
@@ -15289,7 +15300,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>51</v>
@@ -15311,7 +15322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>51</v>
@@ -15333,7 +15344,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43132</v>
       </c>
@@ -15359,7 +15370,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>43160</v>
       </c>
@@ -15383,7 +15394,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -15405,7 +15416,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>51</v>
@@ -15427,7 +15438,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>51</v>
@@ -15449,7 +15460,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43191</v>
       </c>
@@ -15475,7 +15486,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>51</v>
@@ -15497,7 +15508,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43221</v>
       </c>
@@ -15523,7 +15534,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>51</v>
@@ -15545,7 +15556,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43252</v>
       </c>
@@ -15565,7 +15576,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>43282</v>
       </c>
@@ -15585,7 +15596,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>43313</v>
       </c>
@@ -15611,7 +15622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>51</v>
@@ -15633,7 +15644,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>43344</v>
       </c>
@@ -15659,7 +15670,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15681,7 +15692,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>43374</v>
       </c>
@@ -15705,7 +15716,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>54</v>
@@ -15727,7 +15738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>51</v>
@@ -15749,7 +15760,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>43405</v>
       </c>
@@ -15775,7 +15786,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>43435</v>
       </c>
@@ -15801,7 +15812,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>57</v>
@@ -15823,7 +15834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>49</v>
       </c>
@@ -15841,7 +15852,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>43466</v>
       </c>
@@ -15867,7 +15878,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>43497</v>
       </c>
@@ -15893,7 +15904,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>51</v>
@@ -15915,7 +15926,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>43525</v>
       </c>
@@ -15935,7 +15946,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>43556</v>
       </c>
@@ -15961,7 +15972,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>54</v>
@@ -15983,7 +15994,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>51</v>
@@ -16005,7 +16016,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>51</v>
@@ -16027,7 +16038,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>43586</v>
       </c>
@@ -16053,7 +16064,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>57</v>
@@ -16075,7 +16086,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>43617</v>
       </c>
@@ -16099,7 +16110,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>61</v>
@@ -16119,7 +16130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>57</v>
@@ -16141,7 +16152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>43647</v>
       </c>
@@ -16167,7 +16178,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>51</v>
@@ -16189,7 +16200,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>54</v>
@@ -16211,7 +16222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>43678</v>
       </c>
@@ -16237,7 +16248,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>51</v>
@@ -16259,7 +16270,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>43709</v>
       </c>
@@ -16285,7 +16296,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>43739</v>
       </c>
@@ -16311,7 +16322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>51</v>
@@ -16333,7 +16344,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>51</v>
@@ -16355,7 +16366,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>54</v>
@@ -16377,7 +16388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>43770</v>
       </c>
@@ -16403,7 +16414,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>54</v>
@@ -16425,7 +16436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>68</v>
@@ -16447,7 +16458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43800</v>
       </c>
@@ -16473,7 +16484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="48" t="s">
         <v>46</v>
       </c>
@@ -16491,7 +16502,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43831</v>
       </c>
@@ -16517,7 +16528,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
         <v>57</v>
@@ -16539,7 +16550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43862</v>
       </c>
@@ -16563,7 +16574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16585,7 +16596,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>51</v>
@@ -16607,7 +16618,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43891</v>
       </c>
@@ -16627,7 +16638,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43922</v>
       </c>
@@ -16647,7 +16658,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>43952</v>
       </c>
@@ -16667,7 +16678,7 @@
       <c r="J582" s="12"/>
       <c r="K582" s="15"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43983</v>
       </c>
@@ -16691,7 +16702,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44013</v>
       </c>
@@ -16717,7 +16728,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44044</v>
       </c>
@@ -16743,7 +16754,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>51</v>
@@ -16765,7 +16776,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>44075</v>
       </c>
@@ -16791,7 +16802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>51</v>
@@ -16813,7 +16824,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>44105</v>
       </c>
@@ -16837,7 +16848,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>44136</v>
       </c>
@@ -16857,7 +16868,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>44166</v>
       </c>
@@ -16883,7 +16894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>82</v>
@@ -16903,7 +16914,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="48" t="s">
         <v>78</v>
       </c>
@@ -16921,7 +16932,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>44197</v>
       </c>
@@ -16945,7 +16956,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>44228</v>
       </c>
@@ -16965,7 +16976,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>44256</v>
       </c>
@@ -16985,7 +16996,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>44287</v>
       </c>
@@ -17005,7 +17016,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>44317</v>
       </c>
@@ -17029,7 +17040,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>44348</v>
       </c>
@@ -17049,7 +17060,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>44378</v>
       </c>
@@ -17069,7 +17080,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>44409</v>
       </c>
@@ -17089,7 +17100,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>44440</v>
       </c>
@@ -17109,7 +17120,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>44470</v>
       </c>
@@ -17135,7 +17146,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44501</v>
       </c>
@@ -17161,7 +17172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>54</v>
@@ -17183,7 +17194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>44531</v>
       </c>
@@ -17209,7 +17220,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="48" t="s">
         <v>47</v>
       </c>
@@ -17227,7 +17238,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>44562</v>
       </c>
@@ -17251,7 +17262,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>44593</v>
       </c>
@@ -17271,7 +17282,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>44621</v>
       </c>
@@ -17291,7 +17302,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>44652</v>
       </c>
@@ -17317,7 +17328,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>44682</v>
       </c>
@@ -17343,7 +17354,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>44713</v>
       </c>
@@ -17367,7 +17378,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>44743</v>
       </c>
@@ -17393,7 +17404,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>57</v>
@@ -17415,7 +17426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>44774</v>
       </c>
@@ -17441,7 +17452,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>44805</v>
       </c>
@@ -17467,7 +17478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>44835</v>
       </c>
@@ -17493,7 +17504,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>465</v>
@@ -17513,7 +17524,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="49"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>44866</v>
       </c>
@@ -17539,7 +17550,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20" t="s">
         <v>50</v>
@@ -17559,7 +17570,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20" t="s">
         <v>50</v>
@@ -17579,7 +17590,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>44896</v>
       </c>
@@ -17605,7 +17616,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20" t="s">
         <v>464</v>
@@ -17627,7 +17638,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="48" t="s">
         <v>88</v>
       </c>
@@ -17645,7 +17656,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44927</v>
       </c>
@@ -17671,7 +17682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>50</v>
@@ -17691,7 +17702,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>51</v>
@@ -17713,37 +17724,33 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A629" s="40">
-        <v>44958</v>
-      </c>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C629" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D629" s="39"/>
+        <v>473</v>
+      </c>
+      <c r="C629" s="13"/>
+      <c r="D629" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H629" s="39">
-        <v>1</v>
-      </c>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
-      <c r="K629" s="49">
-        <v>44985</v>
-      </c>
-    </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K629" s="49"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B630" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B630" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C630" s="13">
         <v>1.25</v>
       </c>
@@ -17754,20 +17761,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H630" s="39"/>
+      <c r="H630" s="39">
+        <v>1</v>
+      </c>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
-      <c r="K630" s="20"/>
-    </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K630" s="49">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B631" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B631" s="20" t="s">
+        <v>470</v>
+      </c>
       <c r="C631" s="13">
         <v>1.25</v>
       </c>
-      <c r="D631" s="39"/>
+      <c r="D631" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
       <c r="G631" s="13">
@@ -17779,19 +17794,15 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B632" s="20" t="s">
-        <v>53</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B632" s="20"/>
       <c r="C632" s="13">
         <v>1.25</v>
       </c>
-      <c r="D632" s="39">
-        <v>1</v>
-      </c>
+      <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
       <c r="G632" s="13">
@@ -17801,42 +17812,40 @@
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
-      <c r="K632" s="49">
-        <v>45083</v>
-      </c>
-    </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B633" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C633" s="13">
         <v>1.25</v>
       </c>
-      <c r="D633" s="39"/>
+      <c r="D633" s="39">
+        <v>1</v>
+      </c>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
       <c r="G633" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H633" s="39">
-        <v>1</v>
-      </c>
+      <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
       <c r="K633" s="49">
-        <v>45082</v>
-      </c>
-    </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B634" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C634" s="13">
         <v>1.25</v>
@@ -17848,73 +17857,73 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H634" s="39"/>
+      <c r="H634" s="39">
+        <v>1</v>
+      </c>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
       <c r="K634" s="49">
-        <v>45110</v>
-      </c>
-    </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A635" s="40"/>
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" s="40">
+        <v>45108</v>
+      </c>
       <c r="B635" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="C635" s="13"/>
-      <c r="D635" s="39">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C635" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G635" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
-      <c r="K635" s="49" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K635" s="49">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20" t="s">
-        <v>51</v>
+        <v>461</v>
       </c>
       <c r="C636" s="13"/>
-      <c r="D636" s="39"/>
+      <c r="D636" s="39">
+        <v>3</v>
+      </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H636" s="39">
-        <v>1</v>
-      </c>
+      <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="49">
-        <v>45112</v>
-      </c>
-    </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A637" s="40">
-        <v>45139</v>
-      </c>
+      <c r="K636" s="49" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" s="40"/>
       <c r="B637" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C637" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C637" s="13"/>
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H637" s="39">
         <v>1</v>
@@ -17922,36 +17931,36 @@
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
       <c r="K637" s="49">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
-        <v>51</v>
+        <v>472</v>
       </c>
       <c r="C638" s="13"/>
-      <c r="D638" s="39"/>
+      <c r="D638" s="39">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
       <c r="G638" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H638" s="39">
-        <v>1</v>
-      </c>
+      <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
-      <c r="K638" s="49">
-        <v>45163</v>
-      </c>
-    </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K638" s="49"/>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B639" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B639" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C639" s="13">
         <v>1.25</v>
       </c>
@@ -17962,112 +17971,118 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H639" s="39"/>
+      <c r="H639" s="39">
+        <v>1</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
-    </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A640" s="40">
-        <v>45200</v>
-      </c>
+      <c r="K639" s="49">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C640" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D640" s="39">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C640" s="13"/>
+      <c r="D640" s="39"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H640" s="39"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="39">
+        <v>1</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K640" s="49">
+        <v>45163</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B641" s="20" t="s">
-        <v>51</v>
+        <v>470</v>
       </c>
       <c r="C641" s="13">
         <v>1.25</v>
       </c>
-      <c r="D641" s="39"/>
+      <c r="D641" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
       <c r="G641" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H641" s="39">
-        <v>1</v>
-      </c>
+      <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="49">
-        <v>45233</v>
-      </c>
-    </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A642" s="40"/>
+      <c r="K641" s="20"/>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" s="40">
+        <v>45200</v>
+      </c>
       <c r="B642" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C642" s="13"/>
-      <c r="D642" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="C642" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D642" s="39">
+        <v>2</v>
+      </c>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H642" s="39">
-        <v>1</v>
-      </c>
+      <c r="G642" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="49">
-        <v>45217</v>
-      </c>
-    </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K642" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B643" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C643" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D643" s="39"/>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H643" s="39"/>
+      <c r="G643" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H643" s="39">
+        <v>1</v>
+      </c>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
       <c r="K643" s="49">
-        <v>45289</v>
-      </c>
-    </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A644" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="B644" s="20"/>
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" s="40"/>
+      <c r="B644" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C644" s="13"/>
       <c r="D644" s="39"/>
       <c r="E644" s="9"/>
@@ -18076,18 +18091,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H644" s="39"/>
+      <c r="H644" s="39">
+        <v>1</v>
+      </c>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
-      <c r="K644" s="20"/>
-    </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A645" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B645" s="20"/>
+      <c r="K644" s="49">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" s="40"/>
+      <c r="B645" s="20" t="s">
+        <v>471</v>
+      </c>
       <c r="C645" s="13"/>
-      <c r="D645" s="39"/>
+      <c r="D645" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
       <c r="G645" s="13" t="str">
@@ -18097,33 +18118,41 @@
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
-      <c r="K645" s="20"/>
-    </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K645" s="49"/>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B646" s="20"/>
-      <c r="C646" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B646" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C646" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G646" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
-    </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A647" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B647" s="20"/>
+      <c r="K646" s="49">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" s="40"/>
+      <c r="B647" s="20" t="s">
+        <v>470</v>
+      </c>
       <c r="C647" s="13"/>
-      <c r="D647" s="39"/>
+      <c r="D647" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
       <c r="G647" s="13" t="str">
@@ -18133,11 +18162,11 @@
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
-      <c r="K647" s="20"/>
-    </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A648" s="40">
-        <v>45383</v>
+      <c r="K647" s="49"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" s="48" t="s">
+        <v>468</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -18153,9 +18182,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -18171,9 +18200,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -18189,9 +18218,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -18207,9 +18236,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -18225,9 +18254,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -18243,9 +18272,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18261,9 +18290,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18279,9 +18308,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18297,9 +18326,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18315,9 +18344,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18333,9 +18362,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18351,9 +18380,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18369,9 +18398,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18387,9 +18416,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18405,9 +18434,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18423,9 +18452,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18441,9 +18470,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18459,9 +18488,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18477,9 +18506,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18495,9 +18524,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18513,9 +18542,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18531,9 +18560,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18549,9 +18578,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18567,9 +18596,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18585,9 +18614,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18603,9 +18632,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18621,9 +18650,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18639,9 +18668,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18657,9 +18686,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18675,9 +18704,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18693,9 +18722,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18711,9 +18740,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18729,9 +18758,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18747,9 +18776,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18765,9 +18794,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18783,9 +18812,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46478</v>
+        <v>46357</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18801,9 +18830,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46508</v>
+        <v>46388</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18819,9 +18848,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18837,9 +18866,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46569</v>
+        <v>46447</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18855,9 +18884,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46600</v>
+        <v>46478</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18873,9 +18902,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46631</v>
+        <v>46508</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18891,9 +18920,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46661</v>
+        <v>46539</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18909,9 +18938,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46692</v>
+        <v>46569</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18927,9 +18956,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46722</v>
+        <v>46600</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18945,9 +18974,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46753</v>
+        <v>46631</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18963,9 +18992,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46784</v>
+        <v>46661</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18981,9 +19010,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46813</v>
+        <v>46692</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18999,9 +19028,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46844</v>
+        <v>46722</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19017,9 +19046,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46874</v>
+        <v>46753</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19035,9 +19064,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46905</v>
+        <v>46784</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19053,9 +19082,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46935</v>
+        <v>46813</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19071,9 +19100,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46966</v>
+        <v>46844</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19089,9 +19118,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46997</v>
+        <v>46874</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19107,9 +19136,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>47027</v>
+        <v>46905</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19125,8 +19154,10 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A703" s="40"/>
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A703" s="40">
+        <v>46935</v>
+      </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
       <c r="D703" s="39"/>
@@ -19141,8 +19172,10 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A704" s="40"/>
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A704" s="40">
+        <v>46966</v>
+      </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
       <c r="D704" s="39"/>
@@ -19157,8 +19190,10 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A705" s="40"/>
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A705" s="40">
+        <v>46997</v>
+      </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
       <c r="D705" s="39"/>
@@ -19173,8 +19208,10 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A706" s="40"/>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A706" s="40">
+        <v>47027</v>
+      </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
       <c r="D706" s="39"/>
@@ -19189,7 +19226,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19205,7 +19242,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19221,7 +19258,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19237,7 +19274,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19253,7 +19290,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19269,21 +19306,85 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A712" s="41"/>
-      <c r="B712" s="15"/>
-      <c r="C712" s="42"/>
-      <c r="D712" s="43"/>
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A712" s="40"/>
+      <c r="B712" s="20"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="39"/>
       <c r="E712" s="9"/>
-      <c r="F712" s="15"/>
-      <c r="G712" s="42" t="str">
+      <c r="F712" s="20"/>
+      <c r="G712" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H712" s="43"/>
+      <c r="H712" s="39"/>
       <c r="I712" s="9"/>
-      <c r="J712" s="12"/>
-      <c r="K712" s="15"/>
+      <c r="J712" s="11"/>
+      <c r="K712" s="20"/>
+    </row>
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A713" s="40"/>
+      <c r="B713" s="20"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39"/>
+      <c r="E713" s="9"/>
+      <c r="F713" s="20"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H713" s="39"/>
+      <c r="I713" s="9"/>
+      <c r="J713" s="11"/>
+      <c r="K713" s="20"/>
+    </row>
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A714" s="40"/>
+      <c r="B714" s="20"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="39"/>
+      <c r="E714" s="9"/>
+      <c r="F714" s="20"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H714" s="39"/>
+      <c r="I714" s="9"/>
+      <c r="J714" s="11"/>
+      <c r="K714" s="20"/>
+    </row>
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A715" s="40"/>
+      <c r="B715" s="20"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="39"/>
+      <c r="E715" s="9"/>
+      <c r="F715" s="20"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H715" s="39"/>
+      <c r="I715" s="9"/>
+      <c r="J715" s="11"/>
+      <c r="K715" s="20"/>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A716" s="41"/>
+      <c r="B716" s="15"/>
+      <c r="C716" s="42"/>
+      <c r="D716" s="43"/>
+      <c r="E716" s="9"/>
+      <c r="F716" s="15"/>
+      <c r="G716" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H716" s="43"/>
+      <c r="I716" s="9"/>
+      <c r="J716" s="12"/>
+      <c r="K716" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -19301,10 +19402,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19330,41 +19431,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="67" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="J1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -19393,7 +19494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -19401,11 +19502,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.12100000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -19417,17 +19518,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -19441,14 +19542,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -19475,7 +19576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -19501,7 +19602,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -19527,7 +19628,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -19553,7 +19654,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -19579,7 +19680,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -19605,7 +19706,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19631,7 +19732,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19657,7 +19758,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19677,7 +19778,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19697,7 +19798,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19717,7 +19818,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19738,7 +19839,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19759,7 +19860,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19780,7 +19881,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19801,7 +19902,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19822,7 +19923,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19843,7 +19944,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19864,7 +19965,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19885,7 +19986,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19906,7 +20007,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19927,7 +20028,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19948,7 +20049,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19969,7 +20070,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19990,7 +20091,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -20011,7 +20112,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -20032,7 +20133,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -20053,7 +20154,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -20074,7 +20175,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -20095,7 +20196,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -20116,7 +20217,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -20137,7 +20238,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -20146,7 +20247,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -20155,7 +20256,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -20164,7 +20265,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -20173,7 +20274,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -20182,7 +20283,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -20191,7 +20292,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -20200,7 +20301,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -20209,7 +20310,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -20218,7 +20319,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -20227,7 +20328,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -20236,7 +20337,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -20245,7 +20346,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -20254,7 +20355,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -20263,7 +20364,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -20272,7 +20373,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -20281,7 +20382,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -20290,7 +20391,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -20299,7 +20400,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -20308,7 +20409,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -20317,7 +20418,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -20326,7 +20427,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -20335,7 +20436,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -20344,7 +20445,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -20353,7 +20454,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -20362,7 +20463,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -20371,7 +20472,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -20380,7 +20481,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -20389,7 +20490,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -20398,7 +20499,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUDGET/MONTENEGRO, MARIA MARIZA.xlsx
+++ b/REGULAR/BUDGET/MONTENEGRO, MARIA MARIZA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="474">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2201,7 +2201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3269,7 +3269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3344,7 +3344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3387,7 +3387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3453,7 +3453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,9 +3955,9 @@
   <dimension ref="A2:K716"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A625" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A637" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
+      <selection pane="bottomLeft" activeCell="H650" sqref="H650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18186,7 +18186,9 @@
       <c r="A649" s="40">
         <v>45292</v>
       </c>
-      <c r="B649" s="20"/>
+      <c r="B649" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C649" s="13"/>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
@@ -18198,7 +18200,9 @@
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
-      <c r="K649" s="20"/>
+      <c r="K649" s="49">
+        <v>45313</v>
+      </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
